--- a/data/plotting_settings.xlsx
+++ b/data/plotting_settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/sebastian_sterl_vub_be/Documents/Documenten/Backup Private/Archive/2018-2021 VUB Work Files/20001 REVUB Python/West Africa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vub-my.sharepoint.com/personal/sebastian_sterl_vub_be/Documents/Documenten/VUB Work Files/REVUB code repo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{BE585F5E-6B91-4E61-AA71-0D4160623741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D67DC6EB-AA7A-41E2-95B1-08319B52EAA7}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="8_{BE585F5E-6B91-4E61-AA71-0D4160623741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12F76584-D0B9-4F0F-8E98-9DBC8CF8344D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2DE6606B-B2DA-40D4-9284-557EFCF05F90}"/>
   </bookViews>
@@ -70,33 +70,15 @@
     <t>for hourly graph: choose day of the month that the plot starts with</t>
   </si>
   <si>
-    <t>for hourly graph: number of days to show, starting at plot_day_month</t>
-  </si>
-  <si>
     <t>for monthly and hourly graphs: choose which simulation year to take (1 = first year; 2 = second year; etc.)</t>
   </si>
   <si>
     <t>exact name of hydropower plant to plot</t>
   </si>
   <si>
-    <t>enter all months (1-12) for which to plot release rules</t>
-  </si>
-  <si>
-    <t>enter all hours of the day (0-23) for which to plot release rules</t>
-  </si>
-  <si>
     <t>total average load (MW) assumed for graph of full power mix (all non-hydro + VRE is assumed thermal power)</t>
   </si>
   <si>
-    <t>enter here the names of the hydropower plants to include in this plot, starting in column B</t>
-  </si>
-  <si>
-    <t>enter here single values in column B</t>
-  </si>
-  <si>
-    <t>enter here the name of the hydropower plant whose target load curve is to be used for the plot here</t>
-  </si>
-  <si>
     <t>plot_rules_hr</t>
   </si>
   <si>
@@ -119,13 +101,55 @@
   </si>
   <si>
     <t>Buyo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for hourly graph: number of days to show, starting at </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>plot_day_month</t>
+    </r>
+  </si>
+  <si>
+    <t>enter the names of the hydropower plants to include in this plot in row 2, starting in column B</t>
+  </si>
+  <si>
+    <t>enter here the name of the target load curve to be used for the plot here</t>
+  </si>
+  <si>
+    <t>in the below rows, enter single values in column B</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">in this row, enter all months (using numbers 1-12, one per cell) for which to plot release rules </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+  </si>
+  <si>
+    <t>in this row, enter all hours of the day (using numbers 0-23, one per cell) for which to plot release rules →</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +165,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,19 +212,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -186,9 +276,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +316,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -332,7 +422,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,7 +564,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,7 +575,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,29 +587,29 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -530,7 +620,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" t="s">
@@ -541,11 +631,11 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -558,37 +648,37 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="3">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>20</v>
       </c>
     </row>
@@ -602,7 +692,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,53 +701,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
-        <v>17</v>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
         <v>15</v>
       </c>
+      <c r="B4" s="3">
+        <v>15</v>
+      </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" t="s">
@@ -666,9 +756,9 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -677,35 +767,35 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
         <v>400</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
